--- a/biology/Histoire de la zoologie et de la botanique/Oleg_Polunin/Oleg_Polunin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Oleg_Polunin/Oleg_Polunin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oleg Vladimirovitch Polunin (né le 28 novembre 1914 et mort le 2 juillet 1985) est un botaniste, professeur et explorateur anglais. Lui et ses deux frères, Nicholas Polunin (1909–1997), botaniste et écologiste, et Ivan Polunin (1920-2010), photographe et ethnologue, sont connus pour leurs travaux en sciences naturelles.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le second fils du peintre Vladimir Polunin et du sculpteur Elizabeth Violet Hart, immortalisée par Pierre Roché dans son roman Les Deux Anglaises et le continent.
-Après ses études au Magdalen College à Oxford, Oleg Polunin enseigna durant plus de 30 ans à la Charterhouse School à Godalming dans le Surrey. Il se lança ensuite dans la rédaction de guides de vulgarisation sur la flore de l'Europe et de l'Himalaya, dont le plus connu est Flowers of Europe (1969), ouvrage classique qui s'adresse autant aux botanistes qu'au grand public[1]. Polunin effectua de nombreux voyages pour récolter et photographier des plantes et il récolta plusieurs nouvelles espèces.
-En 1932, il reçut le H. H. Bloomer Award de la Linnean Society of London[2].
+Après ses études au Magdalen College à Oxford, Oleg Polunin enseigna durant plus de 30 ans à la Charterhouse School à Godalming dans le Surrey. Il se lança ensuite dans la rédaction de guides de vulgarisation sur la flore de l'Europe et de l'Himalaya, dont le plus connu est Flowers of Europe (1969), ouvrage classique qui s'adresse autant aux botanistes qu'au grand public. Polunin effectua de nombreux voyages pour récolter et photographier des plantes et il récolta plusieurs nouvelles espèces.
+En 1932, il reçut le H. H. Bloomer Award de la Linnean Society of London.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flowers of the Mediterranean, Chatto &amp; Windus, 1967 (traduction en français : Fleurs du Bassin Méditerranéen, Paris, Nathan, 1967)
 Flowers of Europe: a field guide, Oxford University Press, 1969
